--- a/NLP/NLP_problem_Statement/sheet_of_Positive_negative_Stop_Word_constrain_uncertenity_words.xlsx
+++ b/NLP/NLP_problem_Statement/sheet_of_Positive_negative_Stop_Word_constrain_uncertenity_words.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
